--- a/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.081426194270697</v>
+        <v>2.344487138516911</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.895938514399361</v>
+        <v>2.353828500635285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-32.63532461716854</v>
+        <v>-32.76228208442131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.908617347969116</v>
+        <v>5.66823554098106</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.138203370705528</v>
+        <v>-8.33505453160631</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-40.09939311174715</v>
+        <v>-39.67059084970835</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.308379265748861</v>
+        <v>6.349259642691672</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6222388693781138</v>
+        <v>-1.172727735237933</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-34.80127494779094</v>
+        <v>-35.48330065274489</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.05814883432679</v>
+        <v>16.14961689101718</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.69428346264705</v>
+        <v>15.78645351302722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-22.32049603558968</v>
+        <v>-22.01669458375952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.47642170827488</v>
+        <v>18.12096852294775</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.463941538057169</v>
+        <v>5.336193904379638</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-29.74539508396743</v>
+        <v>-29.81478337154769</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.46365106603864</v>
+        <v>15.76328763934331</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.516808244518776</v>
+        <v>8.461907620264038</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-27.67963629393427</v>
+        <v>-27.93910709060584</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.01750827036306147</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.7457217093827657</v>
+        <v>-0.7457217093827658</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2594472857984358</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08021030799841797</v>
+        <v>0.05874108706882559</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07303076219632332</v>
+        <v>0.05650847567684084</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8209602693582043</v>
+        <v>-0.8256414727406357</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1204174053720661</v>
+        <v>0.1103440706066905</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1435728570897193</v>
+        <v>-0.16389374859341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7943088632220892</v>
+        <v>-0.7920503436553968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1428020781629751</v>
+        <v>0.1441647001042765</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01400302895364421</v>
+        <v>-0.02621973308466066</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7935869037241089</v>
+        <v>-0.7917310587744163</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4932979996656172</v>
+        <v>0.4974484668511844</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4699382999450778</v>
+        <v>0.4791666299279296</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.6833404761966417</v>
+        <v>-0.679178602587705</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4253372026257863</v>
+        <v>0.4116795237878201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.125510710922054</v>
+        <v>0.1243306273222893</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6863039504016301</v>
+        <v>-0.6855158602915439</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3983857747413024</v>
+        <v>0.4015666122708302</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2195809215127382</v>
+        <v>0.2151539088279475</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.7093622132881118</v>
+        <v>-0.7079388931418901</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.822979292395729</v>
+        <v>5.274545399488633</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.04652074819075</v>
+        <v>2.033570463778994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-30.35457044837725</v>
+        <v>-30.62340394692099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.492270127091839</v>
+        <v>8.691932844426354</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.315131000064634</v>
+        <v>1.146628054581195</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-35.92615821088512</v>
+        <v>-36.11114670810298</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.658195671269871</v>
+        <v>8.95458563346466</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.964801612065755</v>
+        <v>3.497135615039165</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-32.02723710268722</v>
+        <v>-32.46515002596669</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.05351671634486</v>
+        <v>16.95402905847396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.79086984889094</v>
+        <v>14.18460354823376</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.52989016695135</v>
+        <v>-21.40014126632353</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.15510613549414</v>
+        <v>19.29676108797064</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.82852107756639</v>
+        <v>11.97387117802648</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-27.45687506162302</v>
+        <v>-27.02056020688722</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.01029676036036</v>
+        <v>16.74466262734774</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.0705154351194</v>
+        <v>11.571176294813</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-25.42774733602452</v>
+        <v>-25.68449570161726</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1704620616033514</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.6666545938253832</v>
+        <v>-0.6666545938253831</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1438260831726999</v>
+        <v>0.1265824423525911</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.05187461298414716</v>
+        <v>0.04992471184011729</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7463911032376643</v>
+        <v>-0.753991078065204</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1594529591356847</v>
+        <v>0.1691463694348535</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02537963632902241</v>
+        <v>0.0223791842630667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6942253661655184</v>
+        <v>-0.6968757303293962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1890908089197733</v>
+        <v>0.1986485272148583</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06547139513314258</v>
+        <v>0.07698894618831739</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7028181206756192</v>
+        <v>-0.7089875380940999</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4935321793767586</v>
+        <v>0.4870708918372418</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3995193650392203</v>
+        <v>0.4172558743239245</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.6130142065474699</v>
+        <v>-0.6104405419148549</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4260153102268266</v>
+        <v>0.4218102827554719</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2587345482684109</v>
+        <v>0.2681100176409237</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5963735794890782</v>
+        <v>-0.5927361293730083</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.409380037939743</v>
+        <v>0.4066621431482028</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2680110291385169</v>
+        <v>0.2792152272975553</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.6196981959868624</v>
+        <v>-0.6220077834888503</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.241707068682901</v>
+        <v>8.69368853343674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.178517729189643</v>
+        <v>2.852352305912005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-35.01192837678245</v>
+        <v>-34.9239235248228</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.20771816806791</v>
+        <v>17.63375540411232</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.756488401128163</v>
+        <v>4.316894588947697</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-36.40183746837299</v>
+        <v>-36.12765944470182</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>15.3326777826377</v>
+        <v>15.20037343394678</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.413195315050172</v>
+        <v>5.651023071245928</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-34.51537192230612</v>
+        <v>-34.74068509244221</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.75432504215884</v>
+        <v>22.13357396943342</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.33133512153066</v>
+        <v>17.11769810460176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-24.11481051040166</v>
+        <v>-24.13966577274673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.11160383882191</v>
+        <v>29.33047114158488</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.58914641668624</v>
+        <v>16.95572152771708</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-27.02538485519059</v>
+        <v>-26.26968714861132</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>24.18448774470522</v>
+        <v>24.55098999689915</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.18158647492524</v>
+        <v>15.14541101867322</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-26.85033904872935</v>
+        <v>-27.23879451434071</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2060314171788062</v>
+        <v>0.213662478969072</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05379412988171137</v>
+        <v>0.06867075580394677</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8704628725957199</v>
+        <v>-0.8705263363831737</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3619838738150514</v>
+        <v>0.3773587182507401</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1044965963202071</v>
+        <v>0.08911392593575559</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7750904789381762</v>
+        <v>-0.7755040160134823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3548995394497074</v>
+        <v>0.3523032554096749</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1277568363192672</v>
+        <v>0.1324859521515858</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8028334108797601</v>
+        <v>-0.8066969375936653</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.705999513837016</v>
+        <v>0.6954677795450672</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5021863570764378</v>
+        <v>0.5186741159789309</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.7430474928310686</v>
+        <v>-0.75361309502887</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7585464152112467</v>
+        <v>0.7316370757893036</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4364171144339609</v>
+        <v>0.4205900863847378</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.6657556263118114</v>
+        <v>-0.6568750748218211</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6495381113278279</v>
+        <v>0.6510095680910067</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.403506262578529</v>
+        <v>0.4004454845167814</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.7198417747202145</v>
+        <v>-0.7221684608614867</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.253448357416866</v>
+        <v>6.824171643885085</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.04861244242866</v>
+        <v>-3.344091895815584</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-34.68153688371016</v>
+        <v>-34.5611175683107</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.42941258089057</v>
+        <v>8.666625856572113</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.870621298788563</v>
+        <v>-1.702003551116548</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-38.76925885775706</v>
+        <v>-38.90036967702542</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>9.44070201557318</v>
+        <v>9.58906938212073</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.181578783708584</v>
+        <v>-0.9292526200404885</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-35.75490300270742</v>
+        <v>-35.68009080287936</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.25415744489339</v>
+        <v>18.96235634084442</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.455972116675738</v>
+        <v>8.550637527498514</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-25.62091323567586</v>
+        <v>-25.44811046849092</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.0932880211874</v>
+        <v>19.1522068695735</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.07344121440846</v>
+        <v>9.244448021635307</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-30.59677718040695</v>
+        <v>-30.51878590223354</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.74977090851238</v>
+        <v>17.2252400584714</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.278276038827777</v>
+        <v>7.170579840427621</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-29.92961037986713</v>
+        <v>-29.38168443431045</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.07215148290722655</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.7922697288217198</v>
+        <v>-0.7922697288217196</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3104245390791357</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1739054505776097</v>
+        <v>0.1638212580453404</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07783480879235584</v>
+        <v>-0.08619957962143653</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8384551363978338</v>
+        <v>-0.8384659364733402</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1768439650307109</v>
+        <v>0.1802809853911282</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03928261588515047</v>
+        <v>-0.03371353816657605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8126856934733567</v>
+        <v>-0.8114718494892288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2168442365500019</v>
+        <v>0.2204565816977533</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02598391808061396</v>
+        <v>-0.02067834676353101</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8133587849218241</v>
+        <v>-0.8135989793099838</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5596450222095545</v>
+        <v>0.5538914842303438</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2420335115623536</v>
+        <v>0.2441622380505939</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.7380531027626464</v>
+        <v>-0.7333756842089313</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4635250645253661</v>
+        <v>0.4562122462352894</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2206842556513847</v>
+        <v>0.2230045751854919</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.7331351316604171</v>
+        <v>-0.7313320157466606</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4549518323107949</v>
+        <v>0.4371848338014449</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1857575757746958</v>
+        <v>0.1806627358911535</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.7526274218096103</v>
+        <v>-0.7523526916918479</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>5.258680083471868</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-33.14132980865759</v>
+        <v>-33.1413298086576</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>14.07607365812965</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.988706025568607</v>
+        <v>9.508063018258268</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.908413989536286</v>
+        <v>4.18461265446636</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-30.66653645947948</v>
+        <v>-30.56730287989927</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.72571583392202</v>
+        <v>12.61841879608239</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.232122968484953</v>
+        <v>2.321518238752105</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-35.37483780558826</v>
+        <v>-35.43268219202842</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>12.14137655009234</v>
+        <v>11.94439482415297</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.983963245259301</v>
+        <v>4.188436797923429</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-32.66875076008438</v>
+        <v>-32.75163548037531</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.59320481699913</v>
+        <v>15.89885074339545</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.46965192889921</v>
+        <v>10.79508107974475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-25.55459814178755</v>
+        <v>-25.70439220908034</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.56665961419815</v>
+        <v>18.34863710884325</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.177824355319979</v>
+        <v>8.247994931157347</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-30.97163859121524</v>
+        <v>-30.83847576197972</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.18457204195215</v>
+        <v>16.11553061188163</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.265469406411489</v>
+        <v>8.31357466164436</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-29.36240541254032</v>
+        <v>-29.40440539079973</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1143114269159833</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.7204151308287373</v>
+        <v>-0.7204151308287374</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3359356718025268</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2323895764665732</v>
+        <v>0.245101033834734</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1037368295791285</v>
+        <v>0.1060902035518787</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7895116491357169</v>
+        <v>-0.7897895445626395</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2698603435233789</v>
+        <v>0.2660773674980974</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04645604405871395</v>
+        <v>0.05034387036158397</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7457363769825026</v>
+        <v>-0.7458564304514401</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2822893620081436</v>
+        <v>0.2756680834632499</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0935895773371835</v>
+        <v>0.09890152926830517</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7582243714897505</v>
+        <v>-0.7584026681640808</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4396297865331147</v>
+        <v>0.4448334502889392</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.297024359708756</v>
+        <v>0.3049342986359384</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.7240855820025482</v>
+        <v>-0.7268931036419738</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4243256769008434</v>
+        <v>0.4171765840391672</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1845661093640756</v>
+        <v>0.1870370936559985</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6969627180442853</v>
+        <v>-0.694906390071062</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3948117227021385</v>
+        <v>0.395522514873255</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2019735195561468</v>
+        <v>0.2037604092632194</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.7190912471929434</v>
+        <v>-0.7207726802823043</v>
       </c>
     </row>
     <row r="34">
